--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="38400" yWindow="525" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="View Account" sheetId="1" r:id="rId1"/>
+    <sheet name="Change Name" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Internal ID</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>First name value</t>
-  </si>
-  <si>
-    <t>Last name value</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -130,13 +124,40 @@
   </si>
   <si>
     <t>Check input only "space" chars</t>
+  </si>
+  <si>
+    <t>Change your name</t>
+  </si>
+  <si>
+    <t>Cancel button</t>
+  </si>
+  <si>
+    <t>Save button</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>sc_qa_auto01_signin@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Sign In And Sign Out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,10 +192,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="161"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,8 +239,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,12 +532,10 @@
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,164 +549,197 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Internal ID</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Open and check UI dialog change name after clicking on change name link</t>
   </si>
   <si>
-    <t>56178</t>
-  </si>
-  <si>
     <t>Keeping current user name on first, last name on fields for change name dialog</t>
   </si>
   <si>
-    <t>56180</t>
-  </si>
-  <si>
-    <t>Back to My account page when clicking on cancel button</t>
-  </si>
-  <si>
     <t>56209</t>
   </si>
   <si>
@@ -151,6 +142,9 @@
   </si>
   <si>
     <t>Sign In And Sign Out</t>
+  </si>
+  <si>
+    <t>58814</t>
   </si>
 </sst>
 </file>
@@ -511,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,10 +566,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -586,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -601,54 +595,50 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -656,86 +646,91 @@
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Internal ID</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>58814</t>
+  </si>
+  <si>
+    <t>qa01@yopmail.com</t>
+  </si>
+  <si>
+    <t>This is first name</t>
+  </si>
+  <si>
+    <t>this is last name</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -235,6 +244,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,16 +632,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -734,7 +754,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Internal ID</t>
   </si>
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,6 +722,12 @@
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -729,6 +735,12 @@
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Internal ID</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Changing name with value does not change</t>
   </si>
   <si>
-    <t>56306</t>
-  </si>
-  <si>
-    <t>Changing name while email changing status is pending</t>
-  </si>
-  <si>
     <t>56229</t>
   </si>
   <si>
@@ -154,13 +148,28 @@
   </si>
   <si>
     <t>this is last name</t>
+  </si>
+  <si>
+    <t>A ă ớ bờ cờ dờ đờ</t>
+  </si>
+  <si>
+    <t>e ê gờ oặc lái là lã xuế</t>
+  </si>
+  <si>
+    <t>This is last name</t>
+  </si>
+  <si>
+    <t>✿ϟ☃☂✄¢€£∞✫★½☯✡☪</t>
+  </si>
+  <si>
+    <t>̿'̿'\̵͇̿̿\з=( ͠° ͟ʖ ͡°)=ε/̵͇̿̿/'̿̿ ̿ ̿ ̿</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,21 +184,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.2"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,6 +203,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="37"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Emoji"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,18 +235,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
@@ -539,7 +540,7 @@
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,42 +562,42 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -605,171 +606,201 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45.75">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/DataSet/ChangeName.xlsx
+++ b/DataSet/ChangeName.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Internal ID</t>
   </si>
@@ -87,18 +87,12 @@
     <t>Changing name with old first name and old last name</t>
   </si>
   <si>
-    <t>56215</t>
-  </si>
-  <si>
     <t>Changing name with empty fields</t>
   </si>
   <si>
     <t>56217</t>
   </si>
   <si>
-    <t>Changing name with empty first name or empty last name</t>
-  </si>
-  <si>
     <t>56996</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Sign In And Sign Out</t>
   </si>
   <si>
-    <t>58814</t>
-  </si>
-  <si>
     <t>qa01@yopmail.com</t>
   </si>
   <si>
@@ -163,6 +154,9 @@
   </si>
   <si>
     <t>̿'̿'\̵͇̿̿\з=( ͠° ͟ʖ ͡°)=ε/̵͇̿̿/'̿̿ ̿ ̿ ̿</t>
+  </si>
+  <si>
+    <t>59619</t>
   </si>
 </sst>
 </file>
@@ -516,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -563,10 +557,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -577,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -591,13 +585,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -606,31 +600,31 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -641,17 +635,17 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45.75">
@@ -662,17 +656,17 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -683,17 +677,17 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -704,17 +698,17 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -725,30 +719,30 @@
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -759,10 +753,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -773,24 +767,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
